--- a/TablaF0.01.xlsx
+++ b/TablaF0.01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tapia\Desktop\Proyecto Estadistica\Prueba-Hipotesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferri\Documents\UANL\FCFM\5to Semestre\Estadística\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA634D62-C1D4-46D6-AED8-97D8427A4E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E7DB7E-BD1C-4DDD-B75A-FF6345CAA63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{F714A26F-28BB-46D1-B8F0-6B3BFE2E929C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F714A26F-28BB-46D1-B8F0-6B3BFE2E929C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>v2</t>
+    <t>v2 = Grados de libertad del denominador</t>
   </si>
   <si>
-    <t>v1</t>
-  </si>
-  <si>
-    <t>Tabla F 0.01</t>
+    <t>v1 = Grados de libertad del numerador</t>
   </si>
 </sst>
 </file>
@@ -404,22 +401,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADDECA1-847A-4333-ADE5-A78C10DFCCF4}">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A48"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="2" max="17" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.5546875" customWidth="1"/>
+    <col min="2" max="18" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -439,2409 +433,2601 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>15</v>
+      </c>
+      <c r="O2">
+        <v>16</v>
+      </c>
+      <c r="P2">
+        <v>18</v>
+      </c>
+      <c r="Q2">
+        <v>20</v>
+      </c>
+      <c r="R2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>4052</v>
       </c>
-      <c r="C2">
+      <c r="D3">
         <v>5000</v>
       </c>
-      <c r="D2">
+      <c r="E3">
         <v>5403</v>
       </c>
-      <c r="E2">
+      <c r="F3">
         <v>5625</v>
       </c>
-      <c r="F2">
+      <c r="G3">
         <v>5764</v>
       </c>
-      <c r="G2">
+      <c r="H3">
         <v>5859</v>
       </c>
-      <c r="H2">
+      <c r="I3">
         <v>5928</v>
       </c>
-      <c r="I2">
+      <c r="J3">
         <v>5981</v>
       </c>
-      <c r="J2">
+      <c r="K3">
         <v>6022</v>
       </c>
-      <c r="K2">
+      <c r="L3">
         <v>6056</v>
       </c>
-      <c r="L2">
+      <c r="M3">
         <v>6106</v>
       </c>
-      <c r="M2">
+      <c r="N3">
         <v>6157</v>
       </c>
-      <c r="N2">
+      <c r="O3">
         <v>6170</v>
       </c>
-      <c r="O2">
+      <c r="P3">
         <v>6192</v>
       </c>
-      <c r="P2">
+      <c r="Q3">
         <v>6209</v>
       </c>
-      <c r="Q2">
+      <c r="R3">
         <v>6235</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="1">
-        <v>98.5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>99</v>
-      </c>
-      <c r="D3">
-        <v>99.17</v>
-      </c>
-      <c r="E3">
-        <v>99.25</v>
-      </c>
-      <c r="F3" s="1">
-        <v>99.3</v>
-      </c>
-      <c r="G3">
-        <v>99.33</v>
-      </c>
-      <c r="H3">
-        <v>99.36</v>
-      </c>
-      <c r="I3">
-        <v>99.37</v>
-      </c>
-      <c r="J3">
-        <v>99.39</v>
-      </c>
-      <c r="K3" s="1">
-        <v>99.4</v>
-      </c>
-      <c r="L3">
-        <v>99.42</v>
-      </c>
-      <c r="M3">
-        <v>99.43</v>
-      </c>
-      <c r="N3">
-        <v>99.44</v>
-      </c>
-      <c r="O3">
-        <v>99.44</v>
-      </c>
-      <c r="P3">
-        <v>99.45</v>
-      </c>
-      <c r="Q3">
-        <v>99.46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>98.5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>99</v>
+      </c>
+      <c r="E4">
+        <v>99.17</v>
+      </c>
+      <c r="F4">
+        <v>99.25</v>
+      </c>
+      <c r="G4" s="1">
+        <v>99.3</v>
+      </c>
+      <c r="H4">
+        <v>99.33</v>
+      </c>
+      <c r="I4">
+        <v>99.36</v>
+      </c>
+      <c r="J4">
+        <v>99.37</v>
+      </c>
+      <c r="K4">
+        <v>99.39</v>
+      </c>
+      <c r="L4" s="1">
+        <v>99.4</v>
+      </c>
+      <c r="M4">
+        <v>99.42</v>
+      </c>
+      <c r="N4">
+        <v>99.43</v>
+      </c>
+      <c r="O4">
+        <v>99.44</v>
+      </c>
+      <c r="P4">
+        <v>99.44</v>
+      </c>
+      <c r="Q4">
+        <v>99.45</v>
+      </c>
+      <c r="R4">
+        <v>99.46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>34.119999999999997</v>
       </c>
-      <c r="C4">
+      <c r="D5">
         <v>30.82</v>
       </c>
-      <c r="D4">
+      <c r="E5">
         <v>29.46</v>
       </c>
-      <c r="E4">
+      <c r="F5">
         <v>28.71</v>
       </c>
-      <c r="F4">
+      <c r="G5">
         <v>28.24</v>
       </c>
-      <c r="G4">
+      <c r="H5">
         <v>27.91</v>
       </c>
-      <c r="H4">
+      <c r="I5">
         <v>27.67</v>
       </c>
-      <c r="I4">
+      <c r="J5">
         <v>27.49</v>
       </c>
-      <c r="J4">
+      <c r="K5">
         <v>27.35</v>
       </c>
-      <c r="K4">
+      <c r="L5">
         <v>27.23</v>
       </c>
-      <c r="L4">
+      <c r="M5">
         <v>27.05</v>
       </c>
-      <c r="M4">
+      <c r="N5">
         <v>26.87</v>
       </c>
-      <c r="N4">
+      <c r="O5">
         <v>26.83</v>
       </c>
-      <c r="O4">
+      <c r="P5">
         <v>26.75</v>
       </c>
-      <c r="P4">
+      <c r="Q5">
         <v>26.69</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R5" s="1">
         <v>26.6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1">
-        <v>21.2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>16.690000000000001</v>
-      </c>
-      <c r="E5">
-        <v>15.98</v>
-      </c>
-      <c r="F5">
-        <v>15.52</v>
-      </c>
-      <c r="G5">
-        <v>15.21</v>
-      </c>
-      <c r="H5">
-        <v>14.98</v>
-      </c>
-      <c r="I5" s="1">
-        <v>14.8</v>
-      </c>
-      <c r="J5">
-        <v>14.66</v>
-      </c>
-      <c r="K5">
-        <v>14.55</v>
-      </c>
-      <c r="L5">
-        <v>14.37</v>
-      </c>
-      <c r="M5" s="1">
-        <v>14.2</v>
-      </c>
-      <c r="N5">
-        <v>14.15</v>
-      </c>
-      <c r="O5">
-        <v>14.08</v>
-      </c>
-      <c r="P5">
-        <v>14.02</v>
-      </c>
-      <c r="Q5">
-        <v>13.93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6">
-        <v>16.260000000000002</v>
-      </c>
-      <c r="C6">
-        <v>13.27</v>
-      </c>
-      <c r="D6">
-        <v>12.06</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>21.2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>11.39</v>
+        <v>16.690000000000001</v>
       </c>
       <c r="F6">
-        <v>10.97</v>
+        <v>15.98</v>
       </c>
       <c r="G6">
-        <v>10.67</v>
+        <v>15.52</v>
       </c>
       <c r="H6">
-        <v>10.46</v>
+        <v>15.21</v>
       </c>
       <c r="I6">
-        <v>10.29</v>
-      </c>
-      <c r="J6">
-        <v>10.16</v>
+        <v>14.98</v>
+      </c>
+      <c r="J6" s="1">
+        <v>14.8</v>
       </c>
       <c r="K6">
-        <v>10.051</v>
+        <v>14.66</v>
       </c>
       <c r="L6">
-        <v>9.8879999999999999</v>
+        <v>14.55</v>
       </c>
       <c r="M6">
-        <v>9.7219999999999995</v>
-      </c>
-      <c r="N6" s="2">
-        <v>9.68</v>
-      </c>
-      <c r="O6" s="2">
-        <v>9.61</v>
+        <v>14.37</v>
+      </c>
+      <c r="N6" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="O6">
+        <v>14.15</v>
       </c>
       <c r="P6">
-        <v>9.5530000000000008</v>
+        <v>14.08</v>
       </c>
       <c r="Q6">
-        <v>9.4659999999999993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>14.02</v>
+      </c>
+      <c r="R6">
+        <v>13.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7">
-        <v>13.75</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>10.92</v>
-      </c>
-      <c r="D7" s="2">
-        <v>9.7799999999999994</v>
+        <v>16.260000000000002</v>
+      </c>
+      <c r="D7">
+        <v>13.27</v>
       </c>
       <c r="E7">
-        <v>9.1479999999999997</v>
+        <v>12.06</v>
       </c>
       <c r="F7">
-        <v>8.7460000000000004</v>
+        <v>11.39</v>
       </c>
       <c r="G7">
-        <v>8.4659999999999993</v>
-      </c>
-      <c r="H7" s="2">
-        <v>8.26</v>
+        <v>10.97</v>
+      </c>
+      <c r="H7">
+        <v>10.67</v>
       </c>
       <c r="I7">
-        <v>8.1020000000000003</v>
+        <v>10.46</v>
       </c>
       <c r="J7">
-        <v>7.976</v>
+        <v>10.29</v>
       </c>
       <c r="K7">
-        <v>7.8739999999999997</v>
+        <v>10.16</v>
       </c>
       <c r="L7">
-        <v>7.718</v>
+        <v>10.051</v>
       </c>
       <c r="M7">
-        <v>7.5590000000000002</v>
+        <v>9.8879999999999999</v>
       </c>
       <c r="N7">
-        <v>7.5190000000000001</v>
-      </c>
-      <c r="O7">
-        <v>7.4509999999999996</v>
-      </c>
-      <c r="P7">
-        <v>7.3959999999999999</v>
+        <v>9.7219999999999995</v>
+      </c>
+      <c r="O7" s="2">
+        <v>9.68</v>
+      </c>
+      <c r="P7" s="2">
+        <v>9.61</v>
       </c>
       <c r="Q7">
-        <v>7.3129999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>9.5530000000000008</v>
+      </c>
+      <c r="R7">
+        <v>9.4659999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8">
-        <v>12.25</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>9.5470000000000006</v>
+        <v>13.75</v>
       </c>
       <c r="D8">
-        <v>8.4510000000000005</v>
-      </c>
-      <c r="E8">
-        <v>7.8470000000000004</v>
-      </c>
-      <c r="F8" s="2">
-        <v>7.46</v>
+        <v>10.92</v>
+      </c>
+      <c r="E8" s="2">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="F8">
+        <v>9.1479999999999997</v>
       </c>
       <c r="G8">
-        <v>7.1909999999999998</v>
+        <v>8.7460000000000004</v>
       </c>
       <c r="H8">
-        <v>6.9930000000000003</v>
+        <v>8.4659999999999993</v>
       </c>
       <c r="I8" s="2">
-        <v>6.84</v>
+        <v>8.26</v>
       </c>
       <c r="J8">
-        <v>6.7190000000000003</v>
-      </c>
-      <c r="K8" s="2">
-        <v>6.62</v>
+        <v>8.1020000000000003</v>
+      </c>
+      <c r="K8">
+        <v>7.976</v>
       </c>
       <c r="L8">
-        <v>6.4690000000000003</v>
+        <v>7.8739999999999997</v>
       </c>
       <c r="M8">
-        <v>6.3140000000000001</v>
+        <v>7.718</v>
       </c>
       <c r="N8">
-        <v>6.2750000000000004</v>
+        <v>7.5590000000000002</v>
       </c>
       <c r="O8">
-        <v>6.2089999999999996</v>
+        <v>7.5190000000000001</v>
       </c>
       <c r="P8">
-        <v>6.1550000000000002</v>
+        <v>7.4509999999999996</v>
       </c>
       <c r="Q8">
-        <v>6.0739999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>7.3959999999999999</v>
+      </c>
+      <c r="R8">
+        <v>7.3129999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9">
-        <v>11.26</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>8.6489999999999991</v>
+        <v>12.25</v>
       </c>
       <c r="D9">
-        <v>7.5910000000000002</v>
+        <v>9.5470000000000006</v>
       </c>
       <c r="E9">
-        <v>7.0060000000000002</v>
+        <v>8.4510000000000005</v>
       </c>
       <c r="F9">
-        <v>6.6319999999999997</v>
-      </c>
-      <c r="G9">
-        <v>6.3710000000000004</v>
+        <v>7.8470000000000004</v>
+      </c>
+      <c r="G9" s="2">
+        <v>7.46</v>
       </c>
       <c r="H9">
-        <v>6.1779999999999999</v>
+        <v>7.1909999999999998</v>
       </c>
       <c r="I9">
-        <v>6.0289999999999999</v>
-      </c>
-      <c r="J9">
-        <v>5.9109999999999996</v>
+        <v>6.9930000000000003</v>
+      </c>
+      <c r="J9" s="2">
+        <v>6.84</v>
       </c>
       <c r="K9">
-        <v>5.8140000000000001</v>
-      </c>
-      <c r="L9">
-        <v>5.6669999999999998</v>
+        <v>6.7190000000000003</v>
+      </c>
+      <c r="L9" s="2">
+        <v>6.62</v>
       </c>
       <c r="M9">
-        <v>5.5149999999999997</v>
+        <v>6.4690000000000003</v>
       </c>
       <c r="N9">
-        <v>5.4770000000000003</v>
+        <v>6.3140000000000001</v>
       </c>
       <c r="O9">
-        <v>5.4119999999999999</v>
+        <v>6.2750000000000004</v>
       </c>
       <c r="P9">
-        <v>5.359</v>
+        <v>6.2089999999999996</v>
       </c>
       <c r="Q9">
-        <v>5.2789999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>6.1550000000000002</v>
+      </c>
+      <c r="R9">
+        <v>6.0739999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10">
-        <v>10.56</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>8.0220000000000002</v>
+        <v>11.26</v>
       </c>
       <c r="D10">
-        <v>6.992</v>
+        <v>8.6489999999999991</v>
       </c>
       <c r="E10">
-        <v>6.4219999999999997</v>
+        <v>7.5910000000000002</v>
       </c>
       <c r="F10">
-        <v>6.0570000000000004</v>
+        <v>7.0060000000000002</v>
       </c>
       <c r="G10">
-        <v>5.8019999999999996</v>
+        <v>6.6319999999999997</v>
       </c>
       <c r="H10">
-        <v>5.6130000000000004</v>
+        <v>6.3710000000000004</v>
       </c>
       <c r="I10">
-        <v>5.4669999999999996</v>
+        <v>6.1779999999999999</v>
       </c>
       <c r="J10">
-        <v>5.351</v>
+        <v>6.0289999999999999</v>
       </c>
       <c r="K10">
-        <v>5.2569999999999997</v>
+        <v>5.9109999999999996</v>
       </c>
       <c r="L10">
-        <v>5.1109999999999998</v>
+        <v>5.8140000000000001</v>
       </c>
       <c r="M10">
-        <v>4.9619999999999997</v>
+        <v>5.6669999999999998</v>
       </c>
       <c r="N10">
-        <v>4.9240000000000004</v>
-      </c>
-      <c r="O10" s="2">
-        <v>4.8600000000000003</v>
+        <v>5.5149999999999997</v>
+      </c>
+      <c r="O10">
+        <v>5.4770000000000003</v>
       </c>
       <c r="P10">
-        <v>4.8079999999999998</v>
+        <v>5.4119999999999999</v>
       </c>
       <c r="Q10">
-        <v>4.7290000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5.359</v>
+      </c>
+      <c r="R10">
+        <v>5.2789999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11">
-        <v>10.039999999999999</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>7.5590000000000002</v>
+        <v>10.56</v>
       </c>
       <c r="D11">
-        <v>6.5519999999999996</v>
+        <v>8.0220000000000002</v>
       </c>
       <c r="E11">
-        <v>5.9939999999999998</v>
+        <v>6.992</v>
       </c>
       <c r="F11">
-        <v>5.6360000000000001</v>
+        <v>6.4219999999999997</v>
       </c>
       <c r="G11">
-        <v>5.3860000000000001</v>
-      </c>
-      <c r="H11" s="2">
-        <v>5.2</v>
+        <v>6.0570000000000004</v>
+      </c>
+      <c r="H11">
+        <v>5.8019999999999996</v>
       </c>
       <c r="I11">
-        <v>5.0570000000000004</v>
+        <v>5.6130000000000004</v>
       </c>
       <c r="J11">
-        <v>4.9420000000000002</v>
+        <v>5.4669999999999996</v>
       </c>
       <c r="K11">
-        <v>4.8490000000000002</v>
+        <v>5.351</v>
       </c>
       <c r="L11">
-        <v>4.7060000000000004</v>
+        <v>5.2569999999999997</v>
       </c>
       <c r="M11">
-        <v>4.5579999999999998</v>
-      </c>
-      <c r="N11" s="2">
-        <v>4.5199999999999996</v>
+        <v>5.1109999999999998</v>
+      </c>
+      <c r="N11">
+        <v>4.9619999999999997</v>
       </c>
       <c r="O11">
-        <v>4.4569999999999999</v>
-      </c>
-      <c r="P11">
-        <v>4.4050000000000002</v>
+        <v>4.9240000000000004</v>
+      </c>
+      <c r="P11" s="2">
+        <v>4.8600000000000003</v>
       </c>
       <c r="Q11">
-        <v>4.327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>4.8079999999999998</v>
+      </c>
+      <c r="R11">
+        <v>4.7290000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="D12">
+        <v>7.5590000000000002</v>
+      </c>
+      <c r="E12">
+        <v>6.5519999999999996</v>
+      </c>
+      <c r="F12">
+        <v>5.9939999999999998</v>
+      </c>
+      <c r="G12">
+        <v>5.6360000000000001</v>
+      </c>
+      <c r="H12">
+        <v>5.3860000000000001</v>
+      </c>
+      <c r="I12" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="J12">
+        <v>5.0570000000000004</v>
+      </c>
+      <c r="K12">
+        <v>4.9420000000000002</v>
+      </c>
+      <c r="L12">
+        <v>4.8490000000000002</v>
+      </c>
+      <c r="M12">
+        <v>4.7060000000000004</v>
+      </c>
+      <c r="N12">
+        <v>4.5579999999999998</v>
+      </c>
+      <c r="O12" s="2">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="P12">
+        <v>4.4569999999999999</v>
+      </c>
+      <c r="Q12">
+        <v>4.4050000000000002</v>
+      </c>
+      <c r="R12">
+        <v>4.327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
         <v>9.6460000000000008</v>
       </c>
-      <c r="C12">
+      <c r="D13">
         <v>7.2060000000000004</v>
       </c>
-      <c r="D12">
+      <c r="E13">
         <v>6.2169999999999996</v>
       </c>
-      <c r="E12">
+      <c r="F13">
         <v>5.6680000000000001</v>
       </c>
-      <c r="F12">
+      <c r="G13">
         <v>5.3159999999999998</v>
       </c>
-      <c r="G12">
+      <c r="H13">
         <v>5.069</v>
       </c>
-      <c r="H12">
+      <c r="I13">
         <v>4.8860000000000001</v>
       </c>
-      <c r="I12">
+      <c r="J13">
         <v>4.7439999999999998</v>
       </c>
-      <c r="J12">
+      <c r="K13">
         <v>4.6319999999999997</v>
       </c>
-      <c r="K12">
+      <c r="L13">
         <v>4.5389999999999997</v>
       </c>
-      <c r="L12">
+      <c r="M13">
         <v>4.3970000000000002</v>
       </c>
-      <c r="M12">
+      <c r="N13">
         <v>4.2510000000000003</v>
       </c>
-      <c r="N12">
+      <c r="O13">
         <v>4.2130000000000001</v>
       </c>
-      <c r="O12" s="2">
+      <c r="P13" s="2">
         <v>4.1500000000000004</v>
       </c>
-      <c r="P12">
+      <c r="Q13">
         <v>4.0990000000000002</v>
       </c>
-      <c r="Q12">
+      <c r="R13">
         <v>4.0209999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2">
-        <v>9.33</v>
-      </c>
-      <c r="C13">
-        <v>6.9269999999999996</v>
-      </c>
-      <c r="D13">
-        <v>5.9530000000000003</v>
-      </c>
-      <c r="E13">
-        <v>5.4119999999999999</v>
-      </c>
-      <c r="F13">
-        <v>5.0640000000000001</v>
-      </c>
-      <c r="G13">
-        <v>4.8209999999999997</v>
-      </c>
-      <c r="H13" s="2">
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="I13">
-        <v>4.4989999999999997</v>
-      </c>
-      <c r="J13">
-        <v>4.3879999999999999</v>
-      </c>
-      <c r="K13">
-        <v>4.2960000000000003</v>
-      </c>
-      <c r="L13">
-        <v>4.1550000000000002</v>
-      </c>
-      <c r="M13" s="2">
-        <v>4.01</v>
-      </c>
-      <c r="N13">
-        <v>3.972</v>
-      </c>
-      <c r="O13">
-        <v>3.9089999999999998</v>
-      </c>
-      <c r="P13">
-        <v>3.8580000000000001</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>3.78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14">
-        <v>9.0739999999999998</v>
-      </c>
-      <c r="C14">
-        <v>6.7009999999999996</v>
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
+        <v>9.33</v>
       </c>
       <c r="D14">
-        <v>5.7389999999999999</v>
+        <v>6.9269999999999996</v>
       </c>
       <c r="E14">
-        <v>5.2050000000000001</v>
+        <v>5.9530000000000003</v>
       </c>
       <c r="F14">
-        <v>4.8620000000000001</v>
-      </c>
-      <c r="G14" s="2">
-        <v>4.62</v>
+        <v>5.4119999999999999</v>
+      </c>
+      <c r="G14">
+        <v>5.0640000000000001</v>
       </c>
       <c r="H14">
-        <v>4.4409999999999998</v>
-      </c>
-      <c r="I14">
-        <v>4.3019999999999996</v>
+        <v>4.8209999999999997</v>
+      </c>
+      <c r="I14" s="2">
+        <v>4.6399999999999997</v>
       </c>
       <c r="J14">
-        <v>4.1909999999999998</v>
-      </c>
-      <c r="K14" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="L14" s="2">
-        <v>3.96</v>
+        <v>4.4989999999999997</v>
+      </c>
+      <c r="K14">
+        <v>4.3879999999999999</v>
+      </c>
+      <c r="L14">
+        <v>4.2960000000000003</v>
       </c>
       <c r="M14">
-        <v>3.8149999999999999</v>
-      </c>
-      <c r="N14">
-        <v>3.778</v>
+        <v>4.1550000000000002</v>
+      </c>
+      <c r="N14" s="2">
+        <v>4.01</v>
       </c>
       <c r="O14">
-        <v>3.7160000000000002</v>
+        <v>3.972</v>
       </c>
       <c r="P14">
-        <v>3.665</v>
+        <v>3.9089999999999998</v>
       </c>
       <c r="Q14">
-        <v>3.5870000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3.8580000000000001</v>
+      </c>
+      <c r="R14" s="2">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15">
-        <v>8.8620000000000001</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>6.5149999999999997</v>
+        <v>9.0739999999999998</v>
       </c>
       <c r="D15">
-        <v>5.5640000000000001</v>
+        <v>6.7009999999999996</v>
       </c>
       <c r="E15">
-        <v>5.0350000000000001</v>
+        <v>5.7389999999999999</v>
       </c>
       <c r="F15">
-        <v>4.6950000000000003</v>
+        <v>5.2050000000000001</v>
       </c>
       <c r="G15">
-        <v>4.4560000000000004</v>
-      </c>
-      <c r="H15">
-        <v>4.2779999999999996</v>
-      </c>
-      <c r="I15" s="2">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="J15" s="2">
-        <v>4.03</v>
+        <v>4.8620000000000001</v>
+      </c>
+      <c r="H15" s="2">
+        <v>4.62</v>
+      </c>
+      <c r="I15">
+        <v>4.4409999999999998</v>
+      </c>
+      <c r="J15">
+        <v>4.3019999999999996</v>
       </c>
       <c r="K15">
-        <v>3.9390000000000001</v>
+        <v>4.1909999999999998</v>
       </c>
       <c r="L15" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="M15">
-        <v>3.6560000000000001</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M15" s="2">
+        <v>3.96</v>
       </c>
       <c r="N15">
-        <v>3.6190000000000002</v>
+        <v>3.8149999999999999</v>
       </c>
       <c r="O15">
-        <v>3.556</v>
+        <v>3.778</v>
       </c>
       <c r="P15">
-        <v>3.5049999999999999</v>
+        <v>3.7160000000000002</v>
       </c>
       <c r="Q15">
-        <v>3.427</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3.665</v>
+      </c>
+      <c r="R15">
+        <v>3.5870000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16">
-        <v>8.6829999999999998</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>6.359</v>
+        <v>8.8620000000000001</v>
       </c>
       <c r="D16">
-        <v>5.4169999999999998</v>
+        <v>6.5149999999999997</v>
       </c>
       <c r="E16">
-        <v>4.8929999999999998</v>
+        <v>5.5640000000000001</v>
       </c>
       <c r="F16">
-        <v>4.556</v>
+        <v>5.0350000000000001</v>
       </c>
       <c r="G16">
-        <v>4.3179999999999996</v>
+        <v>4.6950000000000003</v>
       </c>
       <c r="H16">
-        <v>4.1420000000000003</v>
+        <v>4.4560000000000004</v>
       </c>
       <c r="I16">
-        <v>4.0039999999999996</v>
-      </c>
-      <c r="J16">
-        <v>3.895</v>
-      </c>
-      <c r="K16">
-        <v>3.8050000000000002</v>
+        <v>4.2779999999999996</v>
+      </c>
+      <c r="J16" s="2">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="K16" s="2">
+        <v>4.03</v>
       </c>
       <c r="L16">
-        <v>3.6659999999999999</v>
-      </c>
-      <c r="M16">
-        <v>3.5219999999999998</v>
+        <v>3.9390000000000001</v>
+      </c>
+      <c r="M16" s="2">
+        <v>3.8</v>
       </c>
       <c r="N16">
-        <v>3.4849999999999999</v>
+        <v>3.6560000000000001</v>
       </c>
       <c r="O16">
-        <v>3.423</v>
+        <v>3.6190000000000002</v>
       </c>
       <c r="P16">
-        <v>3.3719999999999999</v>
+        <v>3.556</v>
       </c>
       <c r="Q16">
-        <v>3.294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3.5049999999999999</v>
+      </c>
+      <c r="R16">
+        <v>3.427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>8.6829999999999998</v>
+      </c>
+      <c r="D17">
+        <v>6.359</v>
+      </c>
+      <c r="E17">
+        <v>5.4169999999999998</v>
+      </c>
+      <c r="F17">
+        <v>4.8929999999999998</v>
+      </c>
+      <c r="G17">
+        <v>4.556</v>
+      </c>
+      <c r="H17">
+        <v>4.3179999999999996</v>
+      </c>
+      <c r="I17">
+        <v>4.1420000000000003</v>
+      </c>
+      <c r="J17">
+        <v>4.0039999999999996</v>
+      </c>
+      <c r="K17">
+        <v>3.895</v>
+      </c>
+      <c r="L17">
+        <v>3.8050000000000002</v>
+      </c>
+      <c r="M17">
+        <v>3.6659999999999999</v>
+      </c>
+      <c r="N17">
+        <v>3.5219999999999998</v>
+      </c>
+      <c r="O17">
+        <v>3.4849999999999999</v>
+      </c>
+      <c r="P17">
+        <v>3.423</v>
+      </c>
+      <c r="Q17">
+        <v>3.3719999999999999</v>
+      </c>
+      <c r="R17">
+        <v>3.294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
         <v>8.5310000000000006</v>
       </c>
-      <c r="C17">
+      <c r="D18">
         <v>6.226</v>
       </c>
-      <c r="D17">
+      <c r="E18">
         <v>5.2919999999999998</v>
       </c>
-      <c r="E17">
+      <c r="F18">
         <v>4.7729999999999997</v>
       </c>
-      <c r="F17">
+      <c r="G18">
         <v>4.4370000000000003</v>
       </c>
-      <c r="G17">
+      <c r="H18">
         <v>4.202</v>
       </c>
-      <c r="H17">
+      <c r="I18">
         <v>4.0259999999999998</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J18" s="2">
         <v>3.89</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K18" s="2">
         <v>3.78</v>
       </c>
-      <c r="K17">
+      <c r="L18">
         <v>3.6909999999999998</v>
       </c>
-      <c r="L17">
+      <c r="M18">
         <v>3.5529999999999999</v>
       </c>
-      <c r="M17">
+      <c r="N18">
         <v>3.4089999999999998</v>
       </c>
-      <c r="N17">
+      <c r="O18">
         <v>3.3719999999999999</v>
       </c>
-      <c r="O17" s="2">
+      <c r="P18" s="2">
         <v>3.31</v>
       </c>
-      <c r="P17">
+      <c r="Q18">
         <v>3.2589999999999999</v>
       </c>
-      <c r="Q17">
+      <c r="R18">
         <v>3.181</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2">
-        <v>8.4</v>
-      </c>
-      <c r="C18">
-        <v>6.1120000000000001</v>
-      </c>
-      <c r="D18">
-        <v>5.1849999999999996</v>
-      </c>
-      <c r="E18">
-        <v>4.6689999999999996</v>
-      </c>
-      <c r="F18">
-        <v>4.3360000000000003</v>
-      </c>
-      <c r="G18">
-        <v>4.1020000000000003</v>
-      </c>
-      <c r="H18">
-        <v>3.927</v>
-      </c>
-      <c r="I18">
-        <v>3.7909999999999999</v>
-      </c>
-      <c r="J18">
-        <v>3.6819999999999999</v>
-      </c>
-      <c r="K18">
-        <v>3.593</v>
-      </c>
-      <c r="L18">
-        <v>3.4550000000000001</v>
-      </c>
-      <c r="M18">
-        <v>3.3119999999999998</v>
-      </c>
-      <c r="N18">
-        <v>3.2749999999999999</v>
-      </c>
-      <c r="O18">
-        <v>3.2120000000000002</v>
-      </c>
-      <c r="P18">
-        <v>3.1619999999999999</v>
-      </c>
-      <c r="Q18">
-        <v>3.0840000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19">
-        <v>8.2850000000000001</v>
-      </c>
-      <c r="C19">
-        <v>6.0129999999999999</v>
+        <v>17</v>
+      </c>
+      <c r="C19" s="2">
+        <v>8.4</v>
       </c>
       <c r="D19">
-        <v>5.0919999999999996</v>
+        <v>6.1120000000000001</v>
       </c>
       <c r="E19">
-        <v>4.5789999999999997</v>
+        <v>5.1849999999999996</v>
       </c>
       <c r="F19">
-        <v>4.2480000000000002</v>
+        <v>4.6689999999999996</v>
       </c>
       <c r="G19">
-        <v>4.0149999999999997</v>
+        <v>4.3360000000000003</v>
       </c>
       <c r="H19">
-        <v>3.8410000000000002</v>
+        <v>4.1020000000000003</v>
       </c>
       <c r="I19">
-        <v>3.7050000000000001</v>
+        <v>3.927</v>
       </c>
       <c r="J19">
-        <v>3.597</v>
+        <v>3.7909999999999999</v>
       </c>
       <c r="K19">
-        <v>3.508</v>
+        <v>3.6819999999999999</v>
       </c>
       <c r="L19">
-        <v>3.371</v>
+        <v>3.593</v>
       </c>
       <c r="M19">
-        <v>3.2269999999999999</v>
-      </c>
-      <c r="N19" s="2">
-        <v>3.19</v>
+        <v>3.4550000000000001</v>
+      </c>
+      <c r="N19">
+        <v>3.3119999999999998</v>
       </c>
       <c r="O19">
-        <v>3.1280000000000001</v>
+        <v>3.2749999999999999</v>
       </c>
       <c r="P19">
-        <v>3.077</v>
+        <v>3.2120000000000002</v>
       </c>
       <c r="Q19">
-        <v>2.9990000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3.1619999999999999</v>
+      </c>
+      <c r="R19">
+        <v>3.0840000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20">
-        <v>8.1850000000000005</v>
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>5.9260000000000002</v>
-      </c>
-      <c r="D20" s="2">
-        <v>5.01</v>
-      </c>
-      <c r="E20" s="2">
-        <v>4.5</v>
+        <v>8.2850000000000001</v>
+      </c>
+      <c r="D20">
+        <v>6.0129999999999999</v>
+      </c>
+      <c r="E20">
+        <v>5.0919999999999996</v>
       </c>
       <c r="F20">
-        <v>4.1710000000000003</v>
+        <v>4.5789999999999997</v>
       </c>
       <c r="G20">
-        <v>3.9390000000000001</v>
+        <v>4.2480000000000002</v>
       </c>
       <c r="H20">
-        <v>3.7650000000000001</v>
+        <v>4.0149999999999997</v>
       </c>
       <c r="I20">
-        <v>3.6309999999999998</v>
+        <v>3.8410000000000002</v>
       </c>
       <c r="J20">
-        <v>3.5230000000000001</v>
+        <v>3.7050000000000001</v>
       </c>
       <c r="K20">
-        <v>3.4340000000000002</v>
+        <v>3.597</v>
       </c>
       <c r="L20">
-        <v>3.2970000000000002</v>
+        <v>3.508</v>
       </c>
       <c r="M20">
-        <v>3.153</v>
+        <v>3.371</v>
       </c>
       <c r="N20">
-        <v>3.1160000000000001</v>
-      </c>
-      <c r="O20">
-        <v>3.0539999999999998</v>
+        <v>3.2269999999999999</v>
+      </c>
+      <c r="O20" s="2">
+        <v>3.19</v>
       </c>
       <c r="P20">
-        <v>3.0030000000000001</v>
+        <v>3.1280000000000001</v>
       </c>
       <c r="Q20">
-        <v>2.9249999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3.077</v>
+      </c>
+      <c r="R20">
+        <v>2.9990000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21">
-        <v>8.0960000000000001</v>
+        <v>19</v>
       </c>
       <c r="C21">
-        <v>5.8490000000000002</v>
+        <v>8.1850000000000005</v>
       </c>
       <c r="D21">
-        <v>4.9379999999999997</v>
-      </c>
-      <c r="E21">
-        <v>4.431</v>
-      </c>
-      <c r="F21">
-        <v>4.1029999999999998</v>
+        <v>5.9260000000000002</v>
+      </c>
+      <c r="E21" s="2">
+        <v>5.01</v>
+      </c>
+      <c r="F21" s="2">
+        <v>4.5</v>
       </c>
       <c r="G21">
-        <v>3.871</v>
+        <v>4.1710000000000003</v>
       </c>
       <c r="H21">
-        <v>3.6989999999999998</v>
+        <v>3.9390000000000001</v>
       </c>
       <c r="I21">
-        <v>3.5640000000000001</v>
+        <v>3.7650000000000001</v>
       </c>
       <c r="J21">
-        <v>3.4569999999999999</v>
+        <v>3.6309999999999998</v>
       </c>
       <c r="K21">
-        <v>3.3679999999999999</v>
+        <v>3.5230000000000001</v>
       </c>
       <c r="L21">
-        <v>3.2309999999999999</v>
+        <v>3.4340000000000002</v>
       </c>
       <c r="M21">
-        <v>3.0880000000000001</v>
+        <v>3.2970000000000002</v>
       </c>
       <c r="N21">
-        <v>3.0510000000000002</v>
+        <v>3.153</v>
       </c>
       <c r="O21">
-        <v>2.9889999999999999</v>
+        <v>3.1160000000000001</v>
       </c>
       <c r="P21">
-        <v>2.9380000000000002</v>
+        <v>3.0539999999999998</v>
       </c>
       <c r="Q21">
-        <v>2.859</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3.0030000000000001</v>
+      </c>
+      <c r="R21">
+        <v>2.9249999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22">
-        <v>8.0169999999999995</v>
-      </c>
-      <c r="C22" s="2">
-        <v>5.78</v>
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>8.0960000000000001</v>
       </c>
       <c r="D22">
-        <v>4.8739999999999997</v>
+        <v>5.8490000000000002</v>
       </c>
       <c r="E22">
-        <v>4.3689999999999998</v>
+        <v>4.9379999999999997</v>
       </c>
       <c r="F22">
-        <v>4.0419999999999998</v>
+        <v>4.431</v>
       </c>
       <c r="G22">
-        <v>3.8119999999999998</v>
-      </c>
-      <c r="H22" s="2">
-        <v>3.64</v>
+        <v>4.1029999999999998</v>
+      </c>
+      <c r="H22">
+        <v>3.871</v>
       </c>
       <c r="I22">
-        <v>3.5059999999999998</v>
+        <v>3.6989999999999998</v>
       </c>
       <c r="J22">
-        <v>3.3980000000000001</v>
-      </c>
-      <c r="K22" s="2">
-        <v>3.31</v>
+        <v>3.5640000000000001</v>
+      </c>
+      <c r="K22">
+        <v>3.4569999999999999</v>
       </c>
       <c r="L22">
-        <v>3.173</v>
-      </c>
-      <c r="M22" s="2">
-        <v>3.03</v>
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="M22">
+        <v>3.2309999999999999</v>
       </c>
       <c r="N22">
-        <v>2.9929999999999999</v>
+        <v>3.0880000000000001</v>
       </c>
       <c r="O22">
-        <v>2.931</v>
-      </c>
-      <c r="P22" s="2">
-        <v>2.88</v>
+        <v>3.0510000000000002</v>
+      </c>
+      <c r="P22">
+        <v>2.9889999999999999</v>
       </c>
       <c r="Q22">
-        <v>2.8010000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.9380000000000002</v>
+      </c>
+      <c r="R22">
+        <v>2.859</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23">
-        <v>7.9450000000000003</v>
+        <v>21</v>
       </c>
       <c r="C23">
-        <v>5.7190000000000003</v>
-      </c>
-      <c r="D23">
-        <v>4.8170000000000002</v>
+        <v>8.0169999999999995</v>
+      </c>
+      <c r="D23" s="2">
+        <v>5.78</v>
       </c>
       <c r="E23">
-        <v>4.3129999999999997</v>
+        <v>4.8739999999999997</v>
       </c>
       <c r="F23">
-        <v>3.988</v>
+        <v>4.3689999999999998</v>
       </c>
       <c r="G23">
-        <v>3.758</v>
+        <v>4.0419999999999998</v>
       </c>
       <c r="H23">
-        <v>3.5870000000000002</v>
-      </c>
-      <c r="I23">
-        <v>3.4529999999999998</v>
+        <v>3.8119999999999998</v>
+      </c>
+      <c r="I23" s="2">
+        <v>3.64</v>
       </c>
       <c r="J23">
-        <v>3.3460000000000001</v>
+        <v>3.5059999999999998</v>
       </c>
       <c r="K23">
-        <v>3.258</v>
-      </c>
-      <c r="L23">
-        <v>3.121</v>
+        <v>3.3980000000000001</v>
+      </c>
+      <c r="L23" s="2">
+        <v>3.31</v>
       </c>
       <c r="M23">
-        <v>2.9780000000000002</v>
-      </c>
-      <c r="N23">
-        <v>2.9409999999999998</v>
+        <v>3.173</v>
+      </c>
+      <c r="N23" s="2">
+        <v>3.03</v>
       </c>
       <c r="O23">
-        <v>2.879</v>
+        <v>2.9929999999999999</v>
       </c>
       <c r="P23">
-        <v>2.827</v>
-      </c>
-      <c r="Q23">
-        <v>2.7490000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.931</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>2.88</v>
+      </c>
+      <c r="R23">
+        <v>2.8010000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24">
-        <v>7.8810000000000002</v>
+        <v>22</v>
       </c>
       <c r="C24">
-        <v>5.6639999999999997</v>
+        <v>7.9450000000000003</v>
       </c>
       <c r="D24">
-        <v>4.7649999999999997</v>
+        <v>5.7190000000000003</v>
       </c>
       <c r="E24">
-        <v>4.2640000000000002</v>
+        <v>4.8170000000000002</v>
       </c>
       <c r="F24">
-        <v>3.9390000000000001</v>
-      </c>
-      <c r="G24" s="2">
-        <v>3.71</v>
+        <v>4.3129999999999997</v>
+      </c>
+      <c r="G24">
+        <v>3.988</v>
       </c>
       <c r="H24">
-        <v>3.5390000000000001</v>
+        <v>3.758</v>
       </c>
       <c r="I24">
-        <v>3.4060000000000001</v>
+        <v>3.5870000000000002</v>
       </c>
       <c r="J24">
-        <v>3.2989999999999999</v>
+        <v>3.4529999999999998</v>
       </c>
       <c r="K24">
-        <v>3.2109999999999999</v>
+        <v>3.3460000000000001</v>
       </c>
       <c r="L24">
-        <v>3.0739999999999998</v>
+        <v>3.258</v>
       </c>
       <c r="M24">
-        <v>2.931</v>
+        <v>3.121</v>
       </c>
       <c r="N24">
-        <v>2.8940000000000001</v>
+        <v>2.9780000000000002</v>
       </c>
       <c r="O24">
-        <v>2.8319999999999999</v>
+        <v>2.9409999999999998</v>
       </c>
       <c r="P24">
-        <v>2.7810000000000001</v>
+        <v>2.879</v>
       </c>
       <c r="Q24">
-        <v>2.702</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.827</v>
+      </c>
+      <c r="R24">
+        <v>2.7490000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>7.8810000000000002</v>
+      </c>
+      <c r="D25">
+        <v>5.6639999999999997</v>
+      </c>
+      <c r="E25">
+        <v>4.7649999999999997</v>
+      </c>
+      <c r="F25">
+        <v>4.2640000000000002</v>
+      </c>
+      <c r="G25">
+        <v>3.9390000000000001</v>
+      </c>
+      <c r="H25" s="2">
+        <v>3.71</v>
+      </c>
+      <c r="I25">
+        <v>3.5390000000000001</v>
+      </c>
+      <c r="J25">
+        <v>3.4060000000000001</v>
+      </c>
+      <c r="K25">
+        <v>3.2989999999999999</v>
+      </c>
+      <c r="L25">
+        <v>3.2109999999999999</v>
+      </c>
+      <c r="M25">
+        <v>3.0739999999999998</v>
+      </c>
+      <c r="N25">
+        <v>2.931</v>
+      </c>
+      <c r="O25">
+        <v>2.8940000000000001</v>
+      </c>
+      <c r="P25">
+        <v>2.8319999999999999</v>
+      </c>
+      <c r="Q25">
+        <v>2.7810000000000001</v>
+      </c>
+      <c r="R25">
+        <v>2.702</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
         <v>7.8230000000000004</v>
       </c>
-      <c r="C25">
+      <c r="D26">
         <v>5.6139999999999999</v>
       </c>
-      <c r="D25">
+      <c r="E26">
         <v>4.718</v>
       </c>
-      <c r="E25">
+      <c r="F26">
         <v>4.218</v>
       </c>
-      <c r="F25">
+      <c r="G26">
         <v>3.895</v>
       </c>
-      <c r="G25">
+      <c r="H26">
         <v>3.6669999999999998</v>
       </c>
-      <c r="H25">
+      <c r="I26">
         <v>3.496</v>
       </c>
-      <c r="I25">
+      <c r="J26">
         <v>3.363</v>
       </c>
-      <c r="J25">
+      <c r="K26">
         <v>3.2559999999999998</v>
       </c>
-      <c r="K25">
+      <c r="L26">
         <v>3.1680000000000001</v>
       </c>
-      <c r="L25">
+      <c r="M26">
         <v>3.032</v>
       </c>
-      <c r="M25">
+      <c r="N26">
         <v>2.8889999999999998</v>
       </c>
-      <c r="N25">
+      <c r="O26">
         <v>2.8519999999999999</v>
       </c>
-      <c r="O25">
+      <c r="P26">
         <v>2.7890000000000001</v>
       </c>
-      <c r="P25">
+      <c r="Q26">
         <v>2.738</v>
       </c>
-      <c r="Q25">
+      <c r="R26">
         <v>2.6589999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="2">
-        <v>7.77</v>
-      </c>
-      <c r="C26">
-        <v>5.5679999999999996</v>
-      </c>
-      <c r="D26">
-        <v>4.6749999999999998</v>
-      </c>
-      <c r="E26">
-        <v>4.1769999999999996</v>
-      </c>
-      <c r="F26">
-        <v>3.855</v>
-      </c>
-      <c r="G26">
-        <v>3.6269999999999998</v>
-      </c>
-      <c r="H26">
-        <v>3.4569999999999999</v>
-      </c>
-      <c r="I26">
-        <v>3.3239999999999998</v>
-      </c>
-      <c r="J26">
-        <v>3.2170000000000001</v>
-      </c>
-      <c r="K26">
-        <v>3.129</v>
-      </c>
-      <c r="L26">
-        <v>2.9929999999999999</v>
-      </c>
-      <c r="M26" s="2">
-        <v>2.85</v>
-      </c>
-      <c r="N26">
-        <v>2.8130000000000002</v>
-      </c>
-      <c r="O26">
-        <v>2.7509999999999999</v>
-      </c>
-      <c r="P26">
-        <v>2.6989999999999998</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>2.62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27">
-        <v>7.7210000000000001</v>
-      </c>
-      <c r="C27">
-        <v>5.5259999999999998</v>
+        <v>25</v>
+      </c>
+      <c r="C27" s="2">
+        <v>7.77</v>
       </c>
       <c r="D27">
-        <v>4.6369999999999996</v>
-      </c>
-      <c r="E27" s="2">
-        <v>4.1399999999999997</v>
+        <v>5.5679999999999996</v>
+      </c>
+      <c r="E27">
+        <v>4.6749999999999998</v>
       </c>
       <c r="F27">
-        <v>3.8180000000000001</v>
+        <v>4.1769999999999996</v>
       </c>
       <c r="G27">
-        <v>3.5910000000000002</v>
+        <v>3.855</v>
       </c>
       <c r="H27">
-        <v>3.4209999999999998</v>
+        <v>3.6269999999999998</v>
       </c>
       <c r="I27">
-        <v>3.2879999999999998</v>
+        <v>3.4569999999999999</v>
       </c>
       <c r="J27">
-        <v>3.1819999999999999</v>
+        <v>3.3239999999999998</v>
       </c>
       <c r="K27">
-        <v>3.0939999999999999</v>
+        <v>3.2170000000000001</v>
       </c>
       <c r="L27">
-        <v>2.9580000000000002</v>
+        <v>3.129</v>
       </c>
       <c r="M27">
-        <v>2.8149999999999999</v>
-      </c>
-      <c r="N27">
-        <v>2.778</v>
+        <v>2.9929999999999999</v>
+      </c>
+      <c r="N27" s="2">
+        <v>2.85</v>
       </c>
       <c r="O27">
-        <v>2.7149999999999999</v>
+        <v>2.8130000000000002</v>
       </c>
       <c r="P27">
-        <v>2.6640000000000001</v>
+        <v>2.7509999999999999</v>
       </c>
       <c r="Q27">
-        <v>2.585</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.6989999999999998</v>
+      </c>
+      <c r="R27" s="2">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28">
-        <v>7.6769999999999996</v>
+        <v>26</v>
       </c>
       <c r="C28">
-        <v>5.4880000000000004</v>
+        <v>7.7210000000000001</v>
       </c>
       <c r="D28">
-        <v>4.601</v>
+        <v>5.5259999999999998</v>
       </c>
       <c r="E28">
-        <v>4.1059999999999999</v>
-      </c>
-      <c r="F28">
-        <v>3.7850000000000001</v>
+        <v>4.6369999999999996</v>
+      </c>
+      <c r="F28" s="2">
+        <v>4.1399999999999997</v>
       </c>
       <c r="G28">
-        <v>3.5579999999999998</v>
+        <v>3.8180000000000001</v>
       </c>
       <c r="H28">
-        <v>3.3879999999999999</v>
+        <v>3.5910000000000002</v>
       </c>
       <c r="I28">
-        <v>3.2559999999999998</v>
+        <v>3.4209999999999998</v>
       </c>
       <c r="J28">
-        <v>3.149</v>
+        <v>3.2879999999999998</v>
       </c>
       <c r="K28">
-        <v>3.0619999999999998</v>
+        <v>3.1819999999999999</v>
       </c>
       <c r="L28">
-        <v>2.9260000000000002</v>
+        <v>3.0939999999999999</v>
       </c>
       <c r="M28">
-        <v>2.7829999999999999</v>
+        <v>2.9580000000000002</v>
       </c>
       <c r="N28">
-        <v>2.746</v>
+        <v>2.8149999999999999</v>
       </c>
       <c r="O28">
-        <v>2.6829999999999998</v>
+        <v>2.778</v>
       </c>
       <c r="P28">
-        <v>2.6320000000000001</v>
+        <v>2.7149999999999999</v>
       </c>
       <c r="Q28">
-        <v>2.552</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.6640000000000001</v>
+      </c>
+      <c r="R28">
+        <v>2.585</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29">
-        <v>7.6360000000000001</v>
+        <v>27</v>
       </c>
       <c r="C29">
-        <v>5.4530000000000003</v>
+        <v>7.6769999999999996</v>
       </c>
       <c r="D29">
-        <v>4.5679999999999996</v>
+        <v>5.4880000000000004</v>
       </c>
       <c r="E29">
-        <v>4.0739999999999998</v>
+        <v>4.601</v>
       </c>
       <c r="F29">
-        <v>3.754</v>
+        <v>4.1059999999999999</v>
       </c>
       <c r="G29">
-        <v>3.528</v>
+        <v>3.7850000000000001</v>
       </c>
       <c r="H29">
-        <v>3.3580000000000001</v>
+        <v>3.5579999999999998</v>
       </c>
       <c r="I29">
-        <v>3.226</v>
-      </c>
-      <c r="J29" s="2">
-        <v>3.12</v>
+        <v>3.3879999999999999</v>
+      </c>
+      <c r="J29">
+        <v>3.2559999999999998</v>
       </c>
       <c r="K29">
-        <v>3.032</v>
+        <v>3.149</v>
       </c>
       <c r="L29">
-        <v>2.8959999999999999</v>
+        <v>3.0619999999999998</v>
       </c>
       <c r="M29">
-        <v>2.7530000000000001</v>
+        <v>2.9260000000000002</v>
       </c>
       <c r="N29">
-        <v>2.7160000000000002</v>
+        <v>2.7829999999999999</v>
       </c>
       <c r="O29">
-        <v>2.653</v>
+        <v>2.746</v>
       </c>
       <c r="P29">
-        <v>2.6019999999999999</v>
+        <v>2.6829999999999998</v>
       </c>
       <c r="Q29">
-        <v>2.5219999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.6320000000000001</v>
+      </c>
+      <c r="R29">
+        <v>2.552</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30">
-        <v>7.5979999999999999</v>
-      </c>
-      <c r="C30" s="2">
-        <v>5.42</v>
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>7.6360000000000001</v>
       </c>
       <c r="D30">
-        <v>4.5380000000000003</v>
+        <v>5.4530000000000003</v>
       </c>
       <c r="E30">
-        <v>4.0449999999999999</v>
+        <v>4.5679999999999996</v>
       </c>
       <c r="F30">
-        <v>3.7250000000000001</v>
+        <v>4.0739999999999998</v>
       </c>
       <c r="G30">
-        <v>3.4990000000000001</v>
-      </c>
-      <c r="H30" s="2">
-        <v>3.33</v>
+        <v>3.754</v>
+      </c>
+      <c r="H30">
+        <v>3.528</v>
       </c>
       <c r="I30">
-        <v>3.198</v>
+        <v>3.3580000000000001</v>
       </c>
       <c r="J30">
-        <v>3.0920000000000001</v>
-      </c>
-      <c r="K30">
-        <v>3.0049999999999999</v>
+        <v>3.226</v>
+      </c>
+      <c r="K30" s="2">
+        <v>3.12</v>
       </c>
       <c r="L30">
+        <v>3.032</v>
+      </c>
+      <c r="M30">
         <v>2.8959999999999999</v>
       </c>
-      <c r="M30">
-        <v>2.726</v>
-      </c>
       <c r="N30">
-        <v>2.6890000000000001</v>
+        <v>2.7530000000000001</v>
       </c>
       <c r="O30">
-        <v>2.6259999999999999</v>
+        <v>2.7160000000000002</v>
       </c>
       <c r="P30">
-        <v>2.5739999999999998</v>
+        <v>2.653</v>
       </c>
       <c r="Q30">
-        <v>2.4950000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.6019999999999999</v>
+      </c>
+      <c r="R30">
+        <v>2.5219999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31">
-        <v>7.5620000000000003</v>
-      </c>
-      <c r="C31" s="2">
-        <v>5.39</v>
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>7.5979999999999999</v>
       </c>
       <c r="D31" s="2">
-        <v>4.51</v>
+        <v>5.42</v>
       </c>
       <c r="E31">
-        <v>4.0179999999999998</v>
+        <v>4.5380000000000003</v>
       </c>
       <c r="F31">
-        <v>3.6989999999999998</v>
+        <v>4.0449999999999999</v>
       </c>
       <c r="G31">
-        <v>3.4729999999999999</v>
+        <v>3.7250000000000001</v>
       </c>
       <c r="H31">
-        <v>3.3039999999999998</v>
-      </c>
-      <c r="I31">
-        <v>3.173</v>
+        <v>3.4990000000000001</v>
+      </c>
+      <c r="I31" s="2">
+        <v>3.33</v>
       </c>
       <c r="J31">
-        <v>3.0670000000000002</v>
+        <v>3.198</v>
       </c>
       <c r="K31">
-        <v>2.9790000000000001</v>
+        <v>3.0920000000000001</v>
       </c>
       <c r="L31">
-        <v>2.843</v>
-      </c>
-      <c r="M31" s="2">
-        <v>2.7</v>
+        <v>3.0049999999999999</v>
+      </c>
+      <c r="M31">
+        <v>2.8959999999999999</v>
       </c>
       <c r="N31">
-        <v>2.6629999999999998</v>
-      </c>
-      <c r="O31" s="2">
-        <v>2.6</v>
+        <v>2.726</v>
+      </c>
+      <c r="O31">
+        <v>2.6890000000000001</v>
       </c>
       <c r="P31">
-        <v>2.5489999999999999</v>
+        <v>2.6259999999999999</v>
       </c>
       <c r="Q31">
-        <v>2.4689999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.5739999999999998</v>
+      </c>
+      <c r="R31">
+        <v>2.4950000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32">
-        <v>7.4189999999999996</v>
+        <v>30</v>
       </c>
       <c r="C32">
-        <v>5.2679999999999998</v>
-      </c>
-      <c r="D32">
-        <v>4.3959999999999999</v>
-      </c>
-      <c r="E32">
-        <v>3.9079999999999999</v>
+        <v>7.5620000000000003</v>
+      </c>
+      <c r="D32" s="2">
+        <v>5.39</v>
+      </c>
+      <c r="E32" s="2">
+        <v>4.51</v>
       </c>
       <c r="F32">
-        <v>3.5920000000000001</v>
+        <v>4.0179999999999998</v>
       </c>
       <c r="G32">
-        <v>3.3679999999999999</v>
-      </c>
-      <c r="H32" s="2">
-        <v>3.2</v>
+        <v>3.6989999999999998</v>
+      </c>
+      <c r="H32">
+        <v>3.4729999999999999</v>
       </c>
       <c r="I32">
-        <v>3.069</v>
+        <v>3.3039999999999998</v>
       </c>
       <c r="J32">
-        <v>2.9630000000000001</v>
+        <v>3.173</v>
       </c>
       <c r="K32">
-        <v>2.8759999999999999</v>
-      </c>
-      <c r="L32" s="2">
-        <v>2.74</v>
+        <v>3.0670000000000002</v>
+      </c>
+      <c r="L32">
+        <v>2.9790000000000001</v>
       </c>
       <c r="M32">
-        <v>2.597</v>
+        <v>2.843</v>
       </c>
       <c r="N32" s="2">
-        <v>2.56</v>
+        <v>2.7</v>
       </c>
       <c r="O32">
-        <v>2.4969999999999999</v>
-      </c>
-      <c r="P32">
-        <v>2.4449999999999998</v>
+        <v>2.6629999999999998</v>
+      </c>
+      <c r="P32" s="2">
+        <v>2.6</v>
       </c>
       <c r="Q32">
-        <v>2.3639999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.5489999999999999</v>
+      </c>
+      <c r="R32">
+        <v>2.4689999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33">
-        <v>7.3140000000000001</v>
+        <v>35</v>
       </c>
       <c r="C33">
-        <v>5.1790000000000003</v>
+        <v>7.4189999999999996</v>
       </c>
       <c r="D33">
-        <v>4.3129999999999997</v>
+        <v>5.2679999999999998</v>
       </c>
       <c r="E33">
-        <v>3.8279999999999998</v>
+        <v>4.3959999999999999</v>
       </c>
       <c r="F33">
-        <v>3.5139999999999998</v>
+        <v>3.9079999999999999</v>
       </c>
       <c r="G33">
-        <v>3.2909999999999999</v>
+        <v>3.5920000000000001</v>
       </c>
       <c r="H33">
-        <v>3.1240000000000001</v>
-      </c>
-      <c r="I33">
-        <v>2.9929999999999999</v>
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="I33" s="2">
+        <v>3.2</v>
       </c>
       <c r="J33">
-        <v>2.8879999999999999</v>
+        <v>3.069</v>
       </c>
       <c r="K33">
-        <v>2.8010000000000002</v>
+        <v>2.9630000000000001</v>
       </c>
       <c r="L33">
-        <v>2.665</v>
-      </c>
-      <c r="M33">
-        <v>2.5219999999999998</v>
+        <v>2.8759999999999999</v>
+      </c>
+      <c r="M33" s="2">
+        <v>2.74</v>
       </c>
       <c r="N33">
-        <v>2.484</v>
-      </c>
-      <c r="O33">
-        <v>2.4209999999999998</v>
+        <v>2.597</v>
+      </c>
+      <c r="O33" s="2">
+        <v>2.56</v>
       </c>
       <c r="P33">
-        <v>2.3690000000000002</v>
+        <v>2.4969999999999999</v>
       </c>
       <c r="Q33">
-        <v>2.2879999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.4449999999999998</v>
+      </c>
+      <c r="R33">
+        <v>2.3639999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34">
-        <v>7.234</v>
-      </c>
-      <c r="C34" s="2">
-        <v>5.1100000000000003</v>
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <v>7.3140000000000001</v>
       </c>
       <c r="D34">
-        <v>4.2489999999999997</v>
+        <v>5.1790000000000003</v>
       </c>
       <c r="E34">
-        <v>3.7669999999999999</v>
+        <v>4.3129999999999997</v>
       </c>
       <c r="F34">
-        <v>3.4540000000000002</v>
+        <v>3.8279999999999998</v>
       </c>
       <c r="G34">
-        <v>3.2320000000000002</v>
+        <v>3.5139999999999998</v>
       </c>
       <c r="H34">
-        <v>3.0659999999999998</v>
+        <v>3.2909999999999999</v>
       </c>
       <c r="I34">
-        <v>2.9350000000000001</v>
-      </c>
-      <c r="J34" s="2">
-        <v>2.83</v>
+        <v>3.1240000000000001</v>
+      </c>
+      <c r="J34">
+        <v>2.9929999999999999</v>
       </c>
       <c r="K34">
-        <v>2.7429999999999999</v>
+        <v>2.8879999999999999</v>
       </c>
       <c r="L34">
-        <v>2.6080000000000001</v>
+        <v>2.8010000000000002</v>
       </c>
       <c r="M34">
-        <v>2.464</v>
+        <v>2.665</v>
       </c>
       <c r="N34">
-        <v>2.427</v>
+        <v>2.5219999999999998</v>
       </c>
       <c r="O34">
-        <v>2.363</v>
+        <v>2.484</v>
       </c>
       <c r="P34">
-        <v>2.3109999999999999</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>2.23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.4209999999999998</v>
+      </c>
+      <c r="Q34">
+        <v>2.3690000000000002</v>
+      </c>
+      <c r="R34">
+        <v>2.2879999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35">
-        <v>7.1710000000000003</v>
+        <v>45</v>
       </c>
       <c r="C35">
-        <v>5.0570000000000004</v>
-      </c>
-      <c r="D35">
-        <v>4.1989999999999998</v>
-      </c>
-      <c r="E35" s="2">
-        <v>3.72</v>
+        <v>7.234</v>
+      </c>
+      <c r="D35" s="2">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E35">
+        <v>4.2489999999999997</v>
       </c>
       <c r="F35">
-        <v>3.4079999999999999</v>
+        <v>3.7669999999999999</v>
       </c>
       <c r="G35">
-        <v>3.1859999999999999</v>
-      </c>
-      <c r="H35" s="2">
-        <v>3.02</v>
-      </c>
-      <c r="I35" s="2">
-        <v>2.89</v>
+        <v>3.4540000000000002</v>
+      </c>
+      <c r="H35">
+        <v>3.2320000000000002</v>
+      </c>
+      <c r="I35">
+        <v>3.0659999999999998</v>
       </c>
       <c r="J35">
-        <v>2.7850000000000001</v>
-      </c>
-      <c r="K35">
-        <v>2.698</v>
+        <v>2.9350000000000001</v>
+      </c>
+      <c r="K35" s="2">
+        <v>2.83</v>
       </c>
       <c r="L35">
-        <v>2.5619999999999998</v>
+        <v>2.7429999999999999</v>
       </c>
       <c r="M35">
-        <v>2.419</v>
+        <v>2.6080000000000001</v>
       </c>
       <c r="N35">
-        <v>2.3820000000000001</v>
+        <v>2.464</v>
       </c>
       <c r="O35">
-        <v>2.3180000000000001</v>
+        <v>2.427</v>
       </c>
       <c r="P35">
-        <v>2.2650000000000001</v>
+        <v>2.363</v>
       </c>
       <c r="Q35">
-        <v>2.1829999999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.3109999999999999</v>
+      </c>
+      <c r="R35" s="2">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36">
-        <v>7.077</v>
+        <v>50</v>
       </c>
       <c r="C36">
-        <v>4.9770000000000003</v>
+        <v>7.1710000000000003</v>
       </c>
       <c r="D36">
-        <v>4.1260000000000003</v>
+        <v>5.0570000000000004</v>
       </c>
       <c r="E36">
-        <v>3.649</v>
-      </c>
-      <c r="F36">
-        <v>3.339</v>
+        <v>4.1989999999999998</v>
+      </c>
+      <c r="F36" s="2">
+        <v>3.72</v>
       </c>
       <c r="G36">
-        <v>3.1190000000000002</v>
+        <v>3.4079999999999999</v>
       </c>
       <c r="H36">
-        <v>2.9529999999999998</v>
-      </c>
-      <c r="I36">
-        <v>2.823</v>
-      </c>
-      <c r="J36">
-        <v>2.718</v>
+        <v>3.1859999999999999</v>
+      </c>
+      <c r="I36" s="2">
+        <v>3.02</v>
+      </c>
+      <c r="J36" s="2">
+        <v>2.89</v>
       </c>
       <c r="K36">
-        <v>2.6320000000000001</v>
+        <v>2.7850000000000001</v>
       </c>
       <c r="L36">
-        <v>2.496</v>
+        <v>2.698</v>
       </c>
       <c r="M36">
-        <v>2.3519999999999999</v>
+        <v>2.5619999999999998</v>
       </c>
       <c r="N36">
-        <v>2.3149999999999999</v>
+        <v>2.419</v>
       </c>
       <c r="O36">
-        <v>2.2509999999999999</v>
+        <v>2.3820000000000001</v>
       </c>
       <c r="P36">
-        <v>2.198</v>
+        <v>2.3180000000000001</v>
       </c>
       <c r="Q36">
-        <v>2.1150000000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.2650000000000001</v>
+      </c>
+      <c r="R36">
+        <v>2.1829999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37">
-        <v>7.0110000000000001</v>
+        <v>60</v>
       </c>
       <c r="C37">
-        <v>4.9219999999999997</v>
+        <v>7.077</v>
       </c>
       <c r="D37">
-        <v>4.0739999999999998</v>
-      </c>
-      <c r="E37" s="2">
-        <v>3.6</v>
+        <v>4.9770000000000003</v>
+      </c>
+      <c r="E37">
+        <v>4.1260000000000003</v>
       </c>
       <c r="F37">
-        <v>3.2909999999999999</v>
+        <v>3.649</v>
       </c>
       <c r="G37">
-        <v>3.0710000000000002</v>
+        <v>3.339</v>
       </c>
       <c r="H37">
-        <v>2.9060000000000001</v>
+        <v>3.1190000000000002</v>
       </c>
       <c r="I37">
-        <v>2.7770000000000001</v>
+        <v>2.9529999999999998</v>
       </c>
       <c r="J37">
-        <v>2.6720000000000002</v>
+        <v>2.823</v>
       </c>
       <c r="K37">
-        <v>2.585</v>
-      </c>
-      <c r="L37" s="2">
-        <v>2.4500000000000002</v>
+        <v>2.718</v>
+      </c>
+      <c r="L37">
+        <v>2.6320000000000001</v>
       </c>
       <c r="M37">
-        <v>2.306</v>
+        <v>2.496</v>
       </c>
       <c r="N37">
-        <v>2.2679999999999998</v>
+        <v>2.3519999999999999</v>
       </c>
       <c r="O37">
-        <v>2.2040000000000002</v>
-      </c>
-      <c r="P37" s="2">
-        <v>2.15</v>
+        <v>2.3149999999999999</v>
+      </c>
+      <c r="P37">
+        <v>2.2509999999999999</v>
       </c>
       <c r="Q37">
-        <v>2.0670000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.198</v>
+      </c>
+      <c r="R37">
+        <v>2.1150000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38">
-        <v>6.9630000000000001</v>
+        <v>70</v>
       </c>
       <c r="C38">
-        <v>4.8810000000000002</v>
+        <v>7.0110000000000001</v>
       </c>
       <c r="D38">
-        <v>4.0359999999999996</v>
+        <v>4.9219999999999997</v>
       </c>
       <c r="E38">
-        <v>3.5630000000000002</v>
-      </c>
-      <c r="F38">
-        <v>3.2549999999999999</v>
+        <v>4.0739999999999998</v>
+      </c>
+      <c r="F38" s="2">
+        <v>3.6</v>
       </c>
       <c r="G38">
-        <v>3.036</v>
+        <v>3.2909999999999999</v>
       </c>
       <c r="H38">
-        <v>2.871</v>
+        <v>3.0710000000000002</v>
       </c>
       <c r="I38">
-        <v>2.742</v>
+        <v>2.9060000000000001</v>
       </c>
       <c r="J38">
-        <v>2.637</v>
+        <v>2.7770000000000001</v>
       </c>
       <c r="K38">
-        <v>2.5510000000000002</v>
+        <v>2.6720000000000002</v>
       </c>
       <c r="L38">
-        <v>2.415</v>
-      </c>
-      <c r="M38">
-        <v>2.2709999999999999</v>
+        <v>2.585</v>
+      </c>
+      <c r="M38" s="2">
+        <v>2.4500000000000002</v>
       </c>
       <c r="N38">
-        <v>2.2330000000000001</v>
+        <v>2.306</v>
       </c>
       <c r="O38">
-        <v>2.169</v>
+        <v>2.2679999999999998</v>
       </c>
       <c r="P38">
-        <v>2.1150000000000002</v>
-      </c>
-      <c r="Q38">
-        <v>2.032</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.2040000000000002</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>2.15</v>
+      </c>
+      <c r="R38">
+        <v>2.0670000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39">
-        <v>6.8949999999999996</v>
+        <v>80</v>
       </c>
       <c r="C39">
-        <v>4.8239999999999998</v>
+        <v>6.9630000000000001</v>
       </c>
       <c r="D39">
-        <v>3.984</v>
+        <v>4.8810000000000002</v>
       </c>
       <c r="E39">
-        <v>3.5129999999999999</v>
+        <v>4.0359999999999996</v>
       </c>
       <c r="F39">
-        <v>3.206</v>
+        <v>3.5630000000000002</v>
       </c>
       <c r="G39">
-        <v>2.988</v>
+        <v>3.2549999999999999</v>
       </c>
       <c r="H39">
-        <v>2.823</v>
+        <v>3.036</v>
       </c>
       <c r="I39">
-        <v>2.694</v>
-      </c>
-      <c r="J39" s="2">
-        <v>2.59</v>
+        <v>2.871</v>
+      </c>
+      <c r="J39">
+        <v>2.742</v>
       </c>
       <c r="K39">
-        <v>2.5030000000000001</v>
+        <v>2.637</v>
       </c>
       <c r="L39">
-        <v>2.3679999999999999</v>
+        <v>2.5510000000000002</v>
       </c>
       <c r="M39">
-        <v>2.2229999999999999</v>
+        <v>2.415</v>
       </c>
       <c r="N39">
-        <v>2.1850000000000001</v>
-      </c>
-      <c r="O39" s="2">
-        <v>2.12</v>
+        <v>2.2709999999999999</v>
+      </c>
+      <c r="O39">
+        <v>2.2330000000000001</v>
       </c>
       <c r="P39">
-        <v>2.0670000000000002</v>
+        <v>2.169</v>
       </c>
       <c r="Q39">
-        <v>1.9830000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.1150000000000002</v>
+      </c>
+      <c r="R39">
+        <v>2.032</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40">
-        <v>6.8419999999999996</v>
+        <v>100</v>
       </c>
       <c r="C40">
-        <v>4.7789999999999999</v>
+        <v>6.8949999999999996</v>
       </c>
       <c r="D40">
-        <v>3.9420000000000002</v>
+        <v>4.8239999999999998</v>
       </c>
       <c r="E40">
-        <v>3.4729999999999999</v>
+        <v>3.984</v>
       </c>
       <c r="F40">
-        <v>3.1669999999999998</v>
-      </c>
-      <c r="G40" s="2">
-        <v>2.95</v>
+        <v>3.5129999999999999</v>
+      </c>
+      <c r="G40">
+        <v>3.206</v>
       </c>
       <c r="H40">
-        <v>2.786</v>
+        <v>2.988</v>
       </c>
       <c r="I40">
-        <v>2.657</v>
+        <v>2.823</v>
       </c>
       <c r="J40">
-        <v>2.552</v>
-      </c>
-      <c r="K40">
-        <v>2.4660000000000002</v>
-      </c>
-      <c r="L40" s="2">
-        <v>2.33</v>
+        <v>2.694</v>
+      </c>
+      <c r="K40" s="2">
+        <v>2.59</v>
+      </c>
+      <c r="L40">
+        <v>2.5030000000000001</v>
       </c>
       <c r="M40">
+        <v>2.3679999999999999</v>
+      </c>
+      <c r="N40">
+        <v>2.2229999999999999</v>
+      </c>
+      <c r="O40">
         <v>2.1850000000000001</v>
       </c>
-      <c r="N40">
-        <v>2.1469999999999998</v>
-      </c>
-      <c r="O40">
-        <v>2.0819999999999999</v>
-      </c>
-      <c r="P40">
-        <v>2.028</v>
+      <c r="P40" s="2">
+        <v>2.12</v>
       </c>
       <c r="Q40">
-        <v>1.944</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.0670000000000002</v>
+      </c>
+      <c r="R40">
+        <v>1.9830000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41">
-        <v>6.8070000000000004</v>
+        <v>125</v>
       </c>
       <c r="C41">
-        <v>4.7489999999999997</v>
+        <v>6.8419999999999996</v>
       </c>
       <c r="D41">
-        <v>3.915</v>
+        <v>4.7789999999999999</v>
       </c>
       <c r="E41">
-        <v>3.4470000000000001</v>
+        <v>3.9420000000000002</v>
       </c>
       <c r="F41">
-        <v>3.1419999999999999</v>
+        <v>3.4729999999999999</v>
       </c>
       <c r="G41">
-        <v>2.9239999999999999</v>
-      </c>
-      <c r="H41">
-        <v>2.7610000000000001</v>
+        <v>3.1669999999999998</v>
+      </c>
+      <c r="H41" s="2">
+        <v>2.95</v>
       </c>
       <c r="I41">
-        <v>2.6320000000000001</v>
+        <v>2.786</v>
       </c>
       <c r="J41">
-        <v>2.528</v>
+        <v>2.657</v>
       </c>
       <c r="K41">
-        <v>2.4409999999999998</v>
+        <v>2.552</v>
       </c>
       <c r="L41">
-        <v>2.3050000000000002</v>
+        <v>2.4660000000000002</v>
       </c>
       <c r="M41" s="2">
-        <v>2.16</v>
+        <v>2.33</v>
       </c>
       <c r="N41">
-        <v>2.1219999999999999</v>
+        <v>2.1850000000000001</v>
       </c>
       <c r="O41">
-        <v>2.0569999999999999</v>
+        <v>2.1469999999999998</v>
       </c>
       <c r="P41">
-        <v>2.0030000000000001</v>
+        <v>2.0819999999999999</v>
       </c>
       <c r="Q41">
-        <v>1.9179999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.028</v>
+      </c>
+      <c r="R41">
+        <v>1.944</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42">
-        <v>6.782</v>
+        <v>150</v>
       </c>
       <c r="C42">
-        <v>4.7290000000000001</v>
+        <v>6.8070000000000004</v>
       </c>
       <c r="D42">
-        <v>3.895</v>
+        <v>4.7489999999999997</v>
       </c>
       <c r="E42">
-        <v>3.4279999999999999</v>
+        <v>3.915</v>
       </c>
       <c r="F42">
-        <v>3.1230000000000002</v>
+        <v>3.4470000000000001</v>
       </c>
       <c r="G42">
-        <v>2.907</v>
+        <v>3.1419999999999999</v>
       </c>
       <c r="H42">
-        <v>2.7429999999999999</v>
+        <v>2.9239999999999999</v>
       </c>
       <c r="I42">
-        <v>2.6139999999999999</v>
-      </c>
-      <c r="J42" s="2">
-        <v>2.5099999999999998</v>
+        <v>2.7610000000000001</v>
+      </c>
+      <c r="J42">
+        <v>2.6320000000000001</v>
       </c>
       <c r="K42">
-        <v>2.4239999999999999</v>
+        <v>2.528</v>
       </c>
       <c r="L42">
-        <v>2.2879999999999998</v>
+        <v>2.4409999999999998</v>
       </c>
       <c r="M42">
-        <v>2.1429999999999998</v>
-      </c>
-      <c r="N42">
-        <v>2.105</v>
+        <v>2.3050000000000002</v>
+      </c>
+      <c r="N42" s="2">
+        <v>2.16</v>
       </c>
       <c r="O42">
-        <v>2.0390000000000001</v>
+        <v>2.1219999999999999</v>
       </c>
       <c r="P42">
-        <v>1.9850000000000001</v>
+        <v>2.0569999999999999</v>
       </c>
       <c r="Q42">
-        <v>1.899</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.0030000000000001</v>
+      </c>
+      <c r="R42">
+        <v>1.9179999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43">
+        <v>175</v>
+      </c>
+      <c r="C43">
+        <v>6.782</v>
+      </c>
+      <c r="D43">
+        <v>4.7290000000000001</v>
+      </c>
+      <c r="E43">
+        <v>3.895</v>
+      </c>
+      <c r="F43">
+        <v>3.4279999999999999</v>
+      </c>
+      <c r="G43">
+        <v>3.1230000000000002</v>
+      </c>
+      <c r="H43">
+        <v>2.907</v>
+      </c>
+      <c r="I43">
+        <v>2.7429999999999999</v>
+      </c>
+      <c r="J43">
+        <v>2.6139999999999999</v>
+      </c>
+      <c r="K43" s="2">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="L43">
+        <v>2.4239999999999999</v>
+      </c>
+      <c r="M43">
+        <v>2.2879999999999998</v>
+      </c>
+      <c r="N43">
+        <v>2.1429999999999998</v>
+      </c>
+      <c r="O43">
+        <v>2.105</v>
+      </c>
+      <c r="P43">
+        <v>2.0390000000000001</v>
+      </c>
+      <c r="Q43">
+        <v>1.9850000000000001</v>
+      </c>
+      <c r="R43">
+        <v>1.899</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="B44">
+        <v>200</v>
+      </c>
+      <c r="C44">
         <v>6.7629999999999999</v>
       </c>
-      <c r="C43">
+      <c r="D44">
         <v>4.7130000000000001</v>
       </c>
-      <c r="D43">
+      <c r="E44">
         <v>3.8809999999999998</v>
       </c>
-      <c r="E43">
+      <c r="F44">
         <v>3.4140000000000001</v>
       </c>
-      <c r="F43" s="2">
+      <c r="G44" s="2">
         <v>3.11</v>
       </c>
-      <c r="G43">
+      <c r="H44">
         <v>2.8929999999999998</v>
       </c>
-      <c r="H43" s="2">
+      <c r="I44" s="2">
         <v>2.73</v>
       </c>
-      <c r="I43">
+      <c r="J44">
         <v>2.601</v>
       </c>
-      <c r="J43">
+      <c r="K44">
         <v>2.4969999999999999</v>
       </c>
-      <c r="K43">
+      <c r="L44">
         <v>2.411</v>
       </c>
-      <c r="L43">
+      <c r="M44">
         <v>2.2749999999999999</v>
       </c>
-      <c r="M43">
+      <c r="N44">
         <v>2.129</v>
       </c>
-      <c r="N43">
+      <c r="O44">
         <v>2.0910000000000002</v>
       </c>
-      <c r="O43">
+      <c r="P44">
         <v>2.0259999999999998</v>
       </c>
-      <c r="P43">
+      <c r="Q44">
         <v>1.9710000000000001</v>
       </c>
-      <c r="Q43">
+      <c r="R44">
         <v>1.8859999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="2">
-        <v>6.72</v>
-      </c>
-      <c r="C44">
-        <v>4.6769999999999996</v>
-      </c>
-      <c r="D44">
-        <v>3.8479999999999999</v>
-      </c>
-      <c r="E44">
-        <v>3.3820000000000001</v>
-      </c>
-      <c r="F44">
-        <v>3.0790000000000002</v>
-      </c>
-      <c r="G44">
-        <v>2.8620000000000001</v>
-      </c>
-      <c r="H44">
-        <v>2.6989999999999998</v>
-      </c>
-      <c r="I44">
-        <v>2.5710000000000002</v>
-      </c>
-      <c r="J44">
-        <v>2.4670000000000001</v>
-      </c>
-      <c r="K44" s="2">
-        <v>2.38</v>
-      </c>
-      <c r="L44">
-        <v>2.2440000000000002</v>
-      </c>
-      <c r="M44">
-        <v>2.0990000000000002</v>
-      </c>
-      <c r="N44">
-        <v>2.0609999999999999</v>
-      </c>
-      <c r="O44">
-        <v>1.9950000000000001</v>
-      </c>
-      <c r="P44" s="2">
-        <v>1.94</v>
-      </c>
-      <c r="Q44">
-        <v>1.8540000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45">
-        <v>6.6989999999999998</v>
-      </c>
-      <c r="C45">
-        <v>4.6589999999999998</v>
+        <v>300</v>
+      </c>
+      <c r="C45" s="2">
+        <v>6.72</v>
       </c>
       <c r="D45">
-        <v>3.831</v>
+        <v>4.6769999999999996</v>
       </c>
       <c r="E45">
-        <v>3.3660000000000001</v>
+        <v>3.8479999999999999</v>
       </c>
       <c r="F45">
-        <v>3.0630000000000002</v>
+        <v>3.3820000000000001</v>
       </c>
       <c r="G45">
-        <v>2.847</v>
+        <v>3.0790000000000002</v>
       </c>
       <c r="H45">
-        <v>2.6840000000000002</v>
+        <v>2.8620000000000001</v>
       </c>
       <c r="I45">
-        <v>2.556</v>
+        <v>2.6989999999999998</v>
       </c>
       <c r="J45">
-        <v>2.452</v>
+        <v>2.5710000000000002</v>
       </c>
       <c r="K45">
-        <v>2.3650000000000002</v>
-      </c>
-      <c r="L45">
-        <v>2.2290000000000001</v>
+        <v>2.4670000000000001</v>
+      </c>
+      <c r="L45" s="2">
+        <v>2.38</v>
       </c>
       <c r="M45">
-        <v>2.0840000000000001</v>
+        <v>2.2440000000000002</v>
       </c>
       <c r="N45">
-        <v>2.0449999999999999</v>
+        <v>2.0990000000000002</v>
       </c>
       <c r="O45">
-        <v>1.9790000000000001</v>
+        <v>2.0609999999999999</v>
       </c>
       <c r="P45">
-        <v>1.925</v>
-      </c>
-      <c r="Q45">
-        <v>1.8380000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.9950000000000001</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>1.94</v>
+      </c>
+      <c r="R45">
+        <v>1.8540000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46">
-        <v>6.6859999999999999</v>
+        <v>400</v>
       </c>
       <c r="C46">
-        <v>4.6479999999999997</v>
+        <v>6.6989999999999998</v>
       </c>
       <c r="D46">
-        <v>3.8210000000000002</v>
+        <v>4.6589999999999998</v>
       </c>
       <c r="E46">
-        <v>3.3570000000000002</v>
+        <v>3.831</v>
       </c>
       <c r="F46">
-        <v>3.0539999999999998</v>
+        <v>3.3660000000000001</v>
       </c>
       <c r="G46">
-        <v>2.8380000000000001</v>
+        <v>3.0630000000000002</v>
       </c>
       <c r="H46">
-        <v>2.6749999999999998</v>
+        <v>2.847</v>
       </c>
       <c r="I46">
+        <v>2.6840000000000002</v>
+      </c>
+      <c r="J46">
         <v>2.556</v>
       </c>
-      <c r="J46">
-        <v>2.4430000000000001</v>
-      </c>
       <c r="K46">
-        <v>2.3559999999999999</v>
-      </c>
-      <c r="L46" s="2">
-        <v>2.2200000000000002</v>
+        <v>2.452</v>
+      </c>
+      <c r="L46">
+        <v>2.3650000000000002</v>
       </c>
       <c r="M46">
-        <v>2.0750000000000002</v>
+        <v>2.2290000000000001</v>
       </c>
       <c r="N46">
-        <v>2.036</v>
-      </c>
-      <c r="O46" s="2">
-        <v>1.97</v>
+        <v>2.0840000000000001</v>
+      </c>
+      <c r="O46">
+        <v>2.0449999999999999</v>
       </c>
       <c r="P46">
-        <v>1.915</v>
+        <v>1.9790000000000001</v>
       </c>
       <c r="Q46">
-        <v>1.829</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.925</v>
+      </c>
+      <c r="R46">
+        <v>1.8380000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47">
+        <v>500</v>
+      </c>
+      <c r="C47">
+        <v>6.6859999999999999</v>
+      </c>
+      <c r="D47">
+        <v>4.6479999999999997</v>
+      </c>
+      <c r="E47">
+        <v>3.8210000000000002</v>
+      </c>
+      <c r="F47">
+        <v>3.3570000000000002</v>
+      </c>
+      <c r="G47">
+        <v>3.0539999999999998</v>
+      </c>
+      <c r="H47">
+        <v>2.8380000000000001</v>
+      </c>
+      <c r="I47">
+        <v>2.6749999999999998</v>
+      </c>
+      <c r="J47">
+        <v>2.556</v>
+      </c>
+      <c r="K47">
+        <v>2.4430000000000001</v>
+      </c>
+      <c r="L47">
+        <v>2.3559999999999999</v>
+      </c>
+      <c r="M47" s="2">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="N47">
+        <v>2.0750000000000002</v>
+      </c>
+      <c r="O47">
+        <v>2.036</v>
+      </c>
+      <c r="P47" s="2">
+        <v>1.97</v>
+      </c>
+      <c r="Q47">
+        <v>1.915</v>
+      </c>
+      <c r="R47">
+        <v>1.829</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="B48">
+        <v>750</v>
+      </c>
+      <c r="C48">
         <v>6.6689999999999996</v>
       </c>
-      <c r="C47">
+      <c r="D48">
         <v>4.6340000000000003</v>
       </c>
-      <c r="D47">
+      <c r="E48">
         <v>3.8079999999999998</v>
       </c>
-      <c r="E47">
+      <c r="F48">
         <v>3.3439999999999999</v>
       </c>
-      <c r="F47">
+      <c r="G48">
         <v>3.0419999999999998</v>
       </c>
-      <c r="G47">
+      <c r="H48">
         <v>2.8260000000000001</v>
       </c>
-      <c r="H47">
+      <c r="I48">
         <v>2.6629999999999998</v>
       </c>
-      <c r="I47">
+      <c r="J48">
         <v>2.5350000000000001</v>
       </c>
-      <c r="J47">
+      <c r="K48">
         <v>2.431</v>
       </c>
-      <c r="K47">
+      <c r="L48">
         <v>2.3450000000000002</v>
       </c>
-      <c r="L47">
+      <c r="M48">
         <v>2.2080000000000002</v>
       </c>
-      <c r="M47">
+      <c r="N48">
         <v>2.0630000000000002</v>
       </c>
-      <c r="N47">
+      <c r="O48">
         <v>2.024</v>
       </c>
-      <c r="O47">
+      <c r="P48">
         <v>1.958</v>
       </c>
-      <c r="P47">
+      <c r="Q48">
         <v>1.903</v>
       </c>
-      <c r="Q47">
+      <c r="R48">
         <v>1.8160000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="B49">
+        <v>1000</v>
+      </c>
+      <c r="C49" s="2">
         <v>6.66</v>
       </c>
-      <c r="C48">
+      <c r="D49">
         <v>4.6260000000000003</v>
       </c>
-      <c r="D48">
+      <c r="E49">
         <v>3.8010000000000002</v>
       </c>
-      <c r="E48">
+      <c r="F49">
         <v>3.3380000000000001</v>
       </c>
-      <c r="F48">
+      <c r="G49">
         <v>3.036</v>
       </c>
-      <c r="G48" s="2">
+      <c r="H49" s="2">
         <v>2.82</v>
       </c>
-      <c r="H48">
+      <c r="I49">
         <v>2.657</v>
       </c>
-      <c r="I48">
+      <c r="J49">
         <v>2.5289999999999999</v>
       </c>
-      <c r="J48">
+      <c r="K49">
         <v>2.4249999999999998</v>
       </c>
-      <c r="K48">
+      <c r="L49">
         <v>2.339</v>
       </c>
-      <c r="L48">
+      <c r="M49">
         <v>2.2029999999999998</v>
       </c>
-      <c r="M48">
+      <c r="N49">
         <v>2.056</v>
       </c>
-      <c r="N48">
+      <c r="O49">
         <v>2.0179999999999998</v>
       </c>
-      <c r="O48">
+      <c r="P49">
         <v>1.952</v>
       </c>
-      <c r="P48">
+      <c r="Q49">
         <v>1.897</v>
       </c>
-      <c r="Q48" s="2">
+      <c r="R49" s="2">
         <v>1.81</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="A2:A48"/>
+    <mergeCell ref="A2:A49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
